--- a/natmiOut/OldD0/LR-pairs_lrc2p/Reln-Itgb1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Reln-Itgb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.0300251160585709</v>
+        <v>0.03565433333333334</v>
       </c>
       <c r="H2">
-        <v>0.0300251160585709</v>
+        <v>0.106963</v>
       </c>
       <c r="I2">
-        <v>0.002135597941046963</v>
+        <v>0.002412342638581826</v>
       </c>
       <c r="J2">
-        <v>0.002135597941046963</v>
+        <v>0.002412342638581825</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N2">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q2">
-        <v>3.176079913496968</v>
+        <v>4.173145864056334</v>
       </c>
       <c r="R2">
-        <v>3.176079913496968</v>
+        <v>37.558312776507</v>
       </c>
       <c r="S2">
-        <v>0.0006498142814694311</v>
+        <v>0.0007828933924254144</v>
       </c>
       <c r="T2">
-        <v>0.0006498142814694311</v>
+        <v>0.0007828933924254143</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.0300251160585709</v>
+        <v>0.03565433333333334</v>
       </c>
       <c r="H3">
-        <v>0.0300251160585709</v>
+        <v>0.106963</v>
       </c>
       <c r="I3">
-        <v>0.002135597941046963</v>
+        <v>0.002412342638581826</v>
       </c>
       <c r="J3">
-        <v>0.002135597941046963</v>
+        <v>0.002412342638581825</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N3">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q3">
-        <v>3.04728703558427</v>
+        <v>3.621768511095111</v>
       </c>
       <c r="R3">
-        <v>3.04728703558427</v>
+        <v>32.595916599856</v>
       </c>
       <c r="S3">
-        <v>0.0006234637318300573</v>
+        <v>0.0006794535174657673</v>
       </c>
       <c r="T3">
-        <v>0.0006234637318300573</v>
+        <v>0.000679453517465767</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.0300251160585709</v>
+        <v>0.03565433333333334</v>
       </c>
       <c r="H4">
-        <v>0.0300251160585709</v>
+        <v>0.106963</v>
       </c>
       <c r="I4">
-        <v>0.002135597941046963</v>
+        <v>0.002412342638581826</v>
       </c>
       <c r="J4">
-        <v>0.002135597941046963</v>
+        <v>0.002412342638581825</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N4">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q4">
-        <v>4.214738086909456</v>
+        <v>5.063870489153778</v>
       </c>
       <c r="R4">
-        <v>4.214738086909456</v>
+        <v>45.57483440238401</v>
       </c>
       <c r="S4">
-        <v>0.000862319927747475</v>
+        <v>0.0009499957286906442</v>
       </c>
       <c r="T4">
-        <v>0.000862319927747475</v>
+        <v>0.000949995728690644</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.37872951245898</v>
+        <v>8.066615333333333</v>
       </c>
       <c r="H5">
-        <v>7.37872951245898</v>
+        <v>24.199846</v>
       </c>
       <c r="I5">
-        <v>0.5248272654004154</v>
+        <v>0.5457805068380079</v>
       </c>
       <c r="J5">
-        <v>0.5248272654004154</v>
+        <v>0.5457805068380079</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N5">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q5">
-        <v>780.5276937458639</v>
+        <v>944.1534665790992</v>
       </c>
       <c r="R5">
-        <v>780.5276937458639</v>
+        <v>8497.381199211894</v>
       </c>
       <c r="S5">
-        <v>0.1596930985026819</v>
+        <v>0.1771257306836251</v>
       </c>
       <c r="T5">
-        <v>0.1596930985026819</v>
+        <v>0.1771257306836251</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.37872951245898</v>
+        <v>8.066615333333333</v>
       </c>
       <c r="H6">
-        <v>7.37872951245898</v>
+        <v>24.199846</v>
       </c>
       <c r="I6">
-        <v>0.5248272654004154</v>
+        <v>0.5457805068380079</v>
       </c>
       <c r="J6">
-        <v>0.5248272654004154</v>
+        <v>0.5457805068380079</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N6">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q6">
-        <v>748.8765984629974</v>
+        <v>819.4070867136392</v>
       </c>
       <c r="R6">
-        <v>748.8765984629974</v>
+        <v>7374.663780422752</v>
       </c>
       <c r="S6">
-        <v>0.1532174006930789</v>
+        <v>0.1537229741763963</v>
       </c>
       <c r="T6">
-        <v>0.1532174006930789</v>
+        <v>0.1537229741763963</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.37872951245898</v>
+        <v>8.066615333333333</v>
       </c>
       <c r="H7">
-        <v>7.37872951245898</v>
+        <v>24.199846</v>
       </c>
       <c r="I7">
-        <v>0.5248272654004154</v>
+        <v>0.5457805068380079</v>
       </c>
       <c r="J7">
-        <v>0.5248272654004154</v>
+        <v>0.5457805068380079</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N7">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q7">
-        <v>1035.77992000088</v>
+        <v>1145.67547658037</v>
       </c>
       <c r="R7">
-        <v>1035.77992000088</v>
+        <v>10311.07928922333</v>
       </c>
       <c r="S7">
-        <v>0.2119167662046546</v>
+        <v>0.2149318019779865</v>
       </c>
       <c r="T7">
-        <v>0.2119167662046546</v>
+        <v>0.2149318019779865</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.65059403514115</v>
+        <v>6.677692666666666</v>
       </c>
       <c r="H8">
-        <v>6.65059403514115</v>
+        <v>20.033078</v>
       </c>
       <c r="I8">
-        <v>0.4730371366585377</v>
+        <v>0.4518071505234102</v>
       </c>
       <c r="J8">
-        <v>0.4730371366585377</v>
+        <v>0.4518071505234102</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N8">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q8">
-        <v>703.504961866913</v>
+        <v>781.5876200183046</v>
       </c>
       <c r="R8">
-        <v>703.504961866913</v>
+        <v>7034.288580164742</v>
       </c>
       <c r="S8">
-        <v>0.1439345305396907</v>
+        <v>0.1466279404667309</v>
       </c>
       <c r="T8">
-        <v>0.1439345305396907</v>
+        <v>0.1466279404667309</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.65059403514115</v>
+        <v>6.677692666666666</v>
       </c>
       <c r="H9">
-        <v>6.65059403514115</v>
+        <v>20.033078</v>
       </c>
       <c r="I9">
-        <v>0.4730371366585377</v>
+        <v>0.4518071505234102</v>
       </c>
       <c r="J9">
-        <v>0.4730371366585377</v>
+        <v>0.4518071505234102</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N9">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q9">
-        <v>674.9772071716787</v>
+        <v>678.3202703805262</v>
       </c>
       <c r="R9">
-        <v>674.9772071716787</v>
+        <v>6104.882433424737</v>
       </c>
       <c r="S9">
-        <v>0.1380978567392481</v>
+        <v>0.1272547078220139</v>
       </c>
       <c r="T9">
-        <v>0.1380978567392481</v>
+        <v>0.1272547078220139</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.65059403514115</v>
+        <v>6.677692666666666</v>
       </c>
       <c r="H10">
-        <v>6.65059403514115</v>
+        <v>20.033078</v>
       </c>
       <c r="I10">
-        <v>0.4730371366585377</v>
+        <v>0.4518071505234102</v>
       </c>
       <c r="J10">
-        <v>0.4730371366585377</v>
+        <v>0.4518071505234102</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N10">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q10">
-        <v>933.5688137158999</v>
+        <v>948.4112496014116</v>
       </c>
       <c r="R10">
-        <v>933.5688137158999</v>
+        <v>8535.701246412704</v>
       </c>
       <c r="S10">
-        <v>0.1910047493795989</v>
+        <v>0.1779245022346654</v>
       </c>
       <c r="T10">
-        <v>0.1910047493795989</v>
+        <v>0.1779245022346654</v>
       </c>
     </row>
   </sheetData>
